--- a/Original/CN/Game/Tactics.xlsx
+++ b/Original/CN/Game/Tactics.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">_</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Disable</t>

--- a/Original/CN/Game/Tactics.xlsx
+++ b/Original/CN/Game/Tactics.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">_</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Disable</t>

--- a/Original/CN/Game/Tactics.xlsx
+++ b/Original/CN/Game/Tactics.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">_</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Disable</t>

--- a/Original/CN/Game/Tactics.xlsx
+++ b/Original/CN/Game/Tactics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">_</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">Disable</t>
@@ -161,6 +161,24 @@
     <t xml:space="preserve">パラディン</t>
   </si>
   <si>
+    <t xml:space="preserve">turret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タレット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cocoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コクーン</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 17.1</t>
   </si>
   <si>
@@ -176,6 +194,12 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.246</t>
+  </si>
+  <si>
     <t xml:space="preserve">关闭</t>
   </si>
   <si>
@@ -207,6 +231,12 @@
   </si>
   <si>
     <t xml:space="preserve">圣骑士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炮塔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">茧</t>
   </si>
 </sst>
 </file>
@@ -318,10 +348,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -337,7 +367,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -356,10 +386,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -375,10 +405,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -394,10 +424,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -413,10 +443,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -432,10 +462,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -451,10 +481,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -470,7 +500,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -489,10 +519,10 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -508,10 +538,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -527,10 +557,10 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -546,10 +576,10 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -559,6 +589,44 @@
       </c>
       <c r="G15"/>
       <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Tactics.xlsx
+++ b/Original/CN/Game/Tactics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">_</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Disable</t>
@@ -161,24 +161,6 @@
     <t xml:space="preserve">パラディン</t>
   </si>
   <si>
-    <t xml:space="preserve">turret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タレット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cocoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コクーン</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 17.1</t>
   </si>
   <si>
@@ -194,12 +176,6 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.246</t>
-  </si>
-  <si>
     <t xml:space="preserve">关闭</t>
   </si>
   <si>
@@ -231,12 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">圣骑士</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炮塔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">茧</t>
   </si>
 </sst>
 </file>
@@ -348,10 +318,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -367,7 +337,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -386,10 +356,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -405,10 +375,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -424,10 +394,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -443,10 +413,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -462,10 +432,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -481,10 +451,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -500,7 +470,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -519,10 +489,10 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -538,10 +508,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -557,10 +527,10 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -576,10 +546,10 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -589,44 +559,6 @@
       </c>
       <c r="G15"/>
       <c r="H15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
